--- a/Joes Movie Database.xlsx
+++ b/Joes Movie Database.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jab228\Dropbox\NWU\Machine Learning\Final Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14565" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="376">
   <si>
     <t>Action</t>
   </si>
@@ -672,6 +668,486 @@
   </si>
   <si>
     <t>USER</t>
+  </si>
+  <si>
+    <t>Fantasia2000</t>
+  </si>
+  <si>
+    <t>/movie/fantasia2000</t>
+  </si>
+  <si>
+    <t>/movie/21-jump-street</t>
+  </si>
+  <si>
+    <t>/movie/adaptation</t>
+  </si>
+  <si>
+    <t>/movie/almost-famous‎</t>
+  </si>
+  <si>
+    <t>/movie/amadeus</t>
+  </si>
+  <si>
+    <t>/movie/amelie</t>
+  </si>
+  <si>
+    <t>/movie/anchorman-the-legend-of-ron-burgundy</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/movie/the-bad-lieutenant-port-of-call---new-orleans</t>
+  </si>
+  <si>
+    <t>/movie/batman</t>
+  </si>
+  <si>
+    <t>/movie/beauty-and-the-beast</t>
+  </si>
+  <si>
+    <t>/movie/beowulf</t>
+  </si>
+  <si>
+    <t>/movie/bill-teds-excellent-adventure</t>
+  </si>
+  <si>
+    <t>/movie/billy-elliot</t>
+  </si>
+  <si>
+    <t>/movie/blue-is-the-warmest-color</t>
+  </si>
+  <si>
+    <t>/movie/brave</t>
+  </si>
+  <si>
+    <t>/movie/cars-2</t>
+  </si>
+  <si>
+    <t>/movie/casino-royale</t>
+  </si>
+  <si>
+    <t>/movie/chicago</t>
+  </si>
+  <si>
+    <t>/movie/city-of-angels</t>
+  </si>
+  <si>
+    <t>/movie/confessions-of-a-dangerous-mind</t>
+  </si>
+  <si>
+    <t>/movie/django-unchained</t>
+  </si>
+  <si>
+    <t>/movie/edward-scissorhands</t>
+  </si>
+  <si>
+    <t>/movie/fargo</t>
+  </si>
+  <si>
+    <t>/movie/finding-nemo</t>
+  </si>
+  <si>
+    <t>/movie/the-foot-fist-way</t>
+  </si>
+  <si>
+    <t>/movie/four-weddings-and-a-funeral</t>
+  </si>
+  <si>
+    <t>/movie/the-girl-with-the-dragon-tattoo-2011</t>
+  </si>
+  <si>
+    <t>/movie/the-girl-with-the-dragon-tattoo</t>
+  </si>
+  <si>
+    <t>/movie/gladiator</t>
+  </si>
+  <si>
+    <t>/movie/groundhog-day</t>
+  </si>
+  <si>
+    <t>/movie/heist</t>
+  </si>
+  <si>
+    <t>/movie/hook</t>
+  </si>
+  <si>
+    <t>/movie/hugo</t>
+  </si>
+  <si>
+    <t>/movie/inside-llewyn-davis</t>
+  </si>
+  <si>
+    <t>/movie/juno</t>
+  </si>
+  <si>
+    <t>/movie/jurassic-park</t>
+  </si>
+  <si>
+    <t>/movie/knocked-up</t>
+  </si>
+  <si>
+    <t>/movie/the-lord-of-the-rings-the-fellowship-of-the-ring</t>
+  </si>
+  <si>
+    <t>/movie/the-lord-of-the-rings-the-two-towers</t>
+  </si>
+  <si>
+    <t>/movie/love-actually</t>
+  </si>
+  <si>
+    <t>/movie/melancholia</t>
+  </si>
+  <si>
+    <t>/movie/moneyball</t>
+  </si>
+  <si>
+    <t>/movie/mulan</t>
+  </si>
+  <si>
+    <t>/movie/notting-hill</t>
+  </si>
+  <si>
+    <t>/movie/o-brother-where-art-thou</t>
+  </si>
+  <si>
+    <t>/movie/oceans-eleven</t>
+  </si>
+  <si>
+    <t>/movie/the-pianist</t>
+  </si>
+  <si>
+    <t>/movie/pride-prejudice</t>
+  </si>
+  <si>
+    <t>/movie/princess-mononoke</t>
+  </si>
+  <si>
+    <t>/movie/pulp-fiction</t>
+  </si>
+  <si>
+    <t>/movie/quantum-of-solace</t>
+  </si>
+  <si>
+    <t>/movie/the-rocky-horror-picture-show</t>
+  </si>
+  <si>
+    <t>/movie/romeo-juliet</t>
+  </si>
+  <si>
+    <t>/movie/ronin</t>
+  </si>
+  <si>
+    <t>/movie/rush-hour</t>
+  </si>
+  <si>
+    <t>/movie/shrek</t>
+  </si>
+  <si>
+    <t>/movie/theres-something-about-mary</t>
+  </si>
+  <si>
+    <t>/movie/spider-man-3</t>
+  </si>
+  <si>
+    <t>/movie/spirited-away</t>
+  </si>
+  <si>
+    <t>/movie/superbad</t>
+  </si>
+  <si>
+    <t>/movie/synecdoche-new-york</t>
+  </si>
+  <si>
+    <t>/movie/the-talented-mr-ripley</t>
+  </si>
+  <si>
+    <t>/movie/talk-to-her</t>
+  </si>
+  <si>
+    <t>/movie/thank-you-for-smoking</t>
+  </si>
+  <si>
+    <t>/movie/the-40-year-old-virgin</t>
+  </si>
+  <si>
+    <t>/movie/the-amazing-spider-man</t>
+  </si>
+  <si>
+    <t>/movie/the-big-lebowski</t>
+  </si>
+  <si>
+    <t>/movie/the-dark-knight</t>
+  </si>
+  <si>
+    <t>/movie/the-fast-and-the-furious</t>
+  </si>
+  <si>
+    <t>/movie/the-goonies</t>
+  </si>
+  <si>
+    <t>/movie/the-ladykillers</t>
+  </si>
+  <si>
+    <t>/movie/the-man-in-the-iron-mask</t>
+  </si>
+  <si>
+    <t>/movie/the-patriot</t>
+  </si>
+  <si>
+    <t>/movie/the-princess-bride</t>
+  </si>
+  <si>
+    <t>/movie/the-producers</t>
+  </si>
+  <si>
+    <t>/movie/the-adventures-of-tintin</t>
+  </si>
+  <si>
+    <t>/movie/titanic</t>
+  </si>
+  <si>
+    <t>/movie/lara-croft-tomb-raider</t>
+  </si>
+  <si>
+    <t>/movie/toy-story</t>
+  </si>
+  <si>
+    <t>/movie/troy</t>
+  </si>
+  <si>
+    <t>/movie/up</t>
+  </si>
+  <si>
+    <t>/movie/volver</t>
+  </si>
+  <si>
+    <t>/movie/walk-hard-the-dewey-cox-story</t>
+  </si>
+  <si>
+    <t>/movie/wedding-crashers</t>
+  </si>
+  <si>
+    <t>/movie/whale-rider</t>
+  </si>
+  <si>
+    <t>/movie/when-harry-met-sally</t>
+  </si>
+  <si>
+    <t>/movie/women-on-the-verge-of-a-nervous-breakdown</t>
+  </si>
+  <si>
+    <t>/movie/the-legend-of-zorro</t>
+  </si>
+  <si>
+    <t>/movie/black-swan</t>
+  </si>
+  <si>
+    <t>/movie/blade-trinity</t>
+  </si>
+  <si>
+    <t>/movie/jaws</t>
+  </si>
+  <si>
+    <t>/movie/let-the-right-one-in</t>
+  </si>
+  <si>
+    <t>/movie/a-nightmare-on-elm-street-1984</t>
+  </si>
+  <si>
+    <t>/movie/scream</t>
+  </si>
+  <si>
+    <t>/movie/the-ring</t>
+  </si>
+  <si>
+    <t>/movie/the-skin-i-live-in</t>
+  </si>
+  <si>
+    <t>/movie/hostel</t>
+  </si>
+  <si>
+    <t>/movie/the-cabin-in-the-woods</t>
+  </si>
+  <si>
+    <t>/movie/the-descent</t>
+  </si>
+  <si>
+    <t>/movie/from-dusk-till-dawn</t>
+  </si>
+  <si>
+    <t>/movie/evil-dead-2013</t>
+  </si>
+  <si>
+    <t>/movie/blackfish</t>
+  </si>
+  <si>
+    <t>/movie/bowling-for-columbine</t>
+  </si>
+  <si>
+    <t>/movie/rize</t>
+  </si>
+  <si>
+    <t>/movie/the-aristocrats</t>
+  </si>
+  <si>
+    <t>/movie/lost-boys-of-sudan</t>
+  </si>
+  <si>
+    <t>/movie/food-inc</t>
+  </si>
+  <si>
+    <t>/movie/religulous</t>
+  </si>
+  <si>
+    <t>/movie/meet-the-fokkens</t>
+  </si>
+  <si>
+    <t>/movie/senna</t>
+  </si>
+  <si>
+    <t>/movie/super-size-me</t>
+  </si>
+  <si>
+    <t>/movie/justin-bieber-never-say-never</t>
+  </si>
+  <si>
+    <t>/movie/best-in-show</t>
+  </si>
+  <si>
+    <t>/movie/this-is-spinal-tap</t>
+  </si>
+  <si>
+    <t>/tv/take-the-money-and-run</t>
+  </si>
+  <si>
+    <t>/movie/borat-cultural-learnings-of-america-for-make-benefit-glorious-nation-of-kazakhstan</t>
+  </si>
+  <si>
+    <t>/movie/bruno</t>
+  </si>
+  <si>
+    <t>/movie/the-trip-1969</t>
+  </si>
+  <si>
+    <t>/movie/im-still-here</t>
+  </si>
+  <si>
+    <t>/movie/goldeneye</t>
+  </si>
+  <si>
+    <t>/movie/gravity</t>
+  </si>
+  <si>
+    <t>/movie/men-in-black</t>
+  </si>
+  <si>
+    <t>/movie/star-wars-episode-i---the-phantom-menace</t>
+  </si>
+  <si>
+    <t>/movie/star-wars-episode-ii---attack-of-the-clones</t>
+  </si>
+  <si>
+    <t>/movie/star-wars-episode-iii---revenge-of-the-sith</t>
+  </si>
+  <si>
+    <t>Star Wars Episode llI</t>
+  </si>
+  <si>
+    <t>/movie/star-wars-episode-iv---a-new-hope</t>
+  </si>
+  <si>
+    <t>/movie/star-wars-episode-v---the-empire-strikes-back</t>
+  </si>
+  <si>
+    <t>/movie/titan-ae</t>
+  </si>
+  <si>
+    <t>/movie/solaris</t>
+  </si>
+  <si>
+    <t>/movie/riddick</t>
+  </si>
+  <si>
+    <t>/movie/walle</t>
+  </si>
+  <si>
+    <t>movie/apollo-13</t>
+  </si>
+  <si>
+    <t>/movie/armageddon</t>
+  </si>
+  <si>
+    <t>/movie/deep-impact</t>
+  </si>
+  <si>
+    <t>/movie/children-of-men</t>
+  </si>
+  <si>
+    <t>/movie/equilibrium</t>
+  </si>
+  <si>
+    <t>/movie/the-matrix-reloaded</t>
+  </si>
+  <si>
+    <t>/movie/the-terminator</t>
+  </si>
+  <si>
+    <t>/movie/the-matrix</t>
+  </si>
+  <si>
+    <t>/movie/the-island</t>
+  </si>
+  <si>
+    <t>/movie/v-for-vendetta</t>
+  </si>
+  <si>
+    <t>/movie/step-up</t>
+  </si>
+  <si>
+    <t>/movie/magic-mike</t>
+  </si>
+  <si>
+    <t>/movie/bring-it-on</t>
+  </si>
+  <si>
+    <t>/movie/the-fighter</t>
+  </si>
+  <si>
+    <t>/movie/bend-it-like-beckham</t>
+  </si>
+  <si>
+    <t>/movie/her</t>
+  </si>
+  <si>
+    <t>/movie/the-wolf-of-wall-street</t>
+  </si>
+  <si>
+    <t>/movie/american-hustle</t>
+  </si>
+  <si>
+    <t>/movie/lone-survivor</t>
+  </si>
+  <si>
+    <t>/movie/frozen-2013</t>
+  </si>
+  <si>
+    <t>/movie/the-hunger-games-catching-fire</t>
+  </si>
+  <si>
+    <t>/movie/enders-game</t>
+  </si>
+  <si>
+    <t>/movie/pompeii</t>
+  </si>
+  <si>
+    <t>/movie/the-armstrong-lie</t>
+  </si>
+  <si>
+    <t>/movie/nebraska</t>
+  </si>
+  <si>
+    <t>/movie/12-years-a-slave</t>
   </si>
 </sst>
 </file>
@@ -684,7 +1160,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -723,8 +1198,312 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -746,17 +1525,321 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="315">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1096,58 +2179,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BC2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BR2" sqref="BR2"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.125" customWidth="1"/>
-    <col min="25" max="25" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.1640625" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15.5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="7" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -1356,7 +2439,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70">
       <c r="A2" s="1" t="s">
         <v>104</v>
       </c>
@@ -1568,7 +2651,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70">
       <c r="A3" s="1">
         <v>300</v>
       </c>
@@ -1780,7 +2863,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -1992,7 +3075,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2120,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2248,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70">
       <c r="A7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2376,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -2504,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -2632,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:70" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" ht="31.5">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -2760,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -2888,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:70" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" ht="31.5">
       <c r="A12" s="1" t="s">
         <v>154</v>
       </c>
@@ -3016,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:70" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" ht="31.5">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -3144,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:70" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" ht="31.5">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -3272,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:70" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" ht="31.5">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -3400,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70">
       <c r="A16" s="1" t="s">
         <v>133</v>
       </c>
@@ -3528,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" ht="31.5">
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
@@ -3656,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
         <v>152</v>
       </c>
@@ -3785,7 +4868,7 @@
       </c>
       <c r="AR18" s="3"/>
     </row>
-    <row r="19" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" ht="31.5">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -3913,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" s="3" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -4043,7 +5126,7 @@
       <c r="AQ20"/>
       <c r="AR20"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -4171,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -4299,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -4427,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44">
       <c r="A24" s="1" t="s">
         <v>128</v>
       </c>
@@ -4555,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="31.5">
       <c r="A25" s="1" t="s">
         <v>124</v>
       </c>
@@ -4683,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44">
       <c r="A26" s="1" t="s">
         <v>145</v>
       </c>
@@ -4811,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" ht="31.5">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -4939,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -5067,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -5195,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44">
       <c r="A30" s="1" t="s">
         <v>113</v>
       </c>
@@ -5323,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44">
       <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
@@ -5451,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" ht="31.5">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -5579,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" ht="31.5">
       <c r="A33" s="1" t="s">
         <v>157</v>
       </c>
@@ -5707,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" ht="31.5">
       <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
@@ -5835,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -5963,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42">
       <c r="A36" s="1" t="s">
         <v>114</v>
       </c>
@@ -6091,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -6219,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42">
       <c r="A38" s="1" t="s">
         <v>134</v>
       </c>
@@ -6347,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
@@ -6475,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42">
       <c r="A40" s="1" t="s">
         <v>110</v>
       </c>
@@ -6603,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -6731,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42">
       <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
@@ -6859,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
@@ -6987,7 +8070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
@@ -7115,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -7243,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42">
       <c r="A46" s="1" t="s">
         <v>76</v>
       </c>
@@ -7371,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -7499,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42">
       <c r="A48" s="1" t="s">
         <v>105</v>
       </c>
@@ -7627,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42">
       <c r="A49" s="1" t="s">
         <v>141</v>
       </c>
@@ -7755,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -7883,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -8011,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
@@ -8139,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" ht="31.5">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
@@ -8267,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -8395,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42">
       <c r="A55" s="1" t="s">
         <v>155</v>
       </c>
@@ -8523,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42">
       <c r="A56" s="1" t="s">
         <v>127</v>
       </c>
@@ -8651,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -8779,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42">
       <c r="A58" s="1" t="s">
         <v>144</v>
       </c>
@@ -8907,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42">
       <c r="A59" s="1" t="s">
         <v>165</v>
       </c>
@@ -9035,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42">
       <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
@@ -9163,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" ht="31.5">
       <c r="A61" s="1" t="s">
         <v>130</v>
       </c>
@@ -9291,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" ht="31.5">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
@@ -9419,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" ht="47.25">
       <c r="A63" s="1" t="s">
         <v>136</v>
       </c>
@@ -9547,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
@@ -9675,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
@@ -9803,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42">
       <c r="A66" s="1" t="s">
         <v>102</v>
       </c>
@@ -9931,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" ht="31.5">
       <c r="A67" s="1" t="s">
         <v>115</v>
       </c>
@@ -10059,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42">
       <c r="A68" s="1" t="s">
         <v>111</v>
       </c>
@@ -10187,7 +11270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42">
       <c r="A69" s="1" t="s">
         <v>55</v>
       </c>
@@ -10315,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42">
       <c r="A70" s="1" t="s">
         <v>122</v>
       </c>
@@ -10443,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -10571,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" ht="31.5">
       <c r="A72" s="1" t="s">
         <v>125</v>
       </c>
@@ -10699,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -10827,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" ht="31.5">
       <c r="A74" s="1" t="s">
         <v>100</v>
       </c>
@@ -10955,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" ht="31.5">
       <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
@@ -11083,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" ht="31.5">
       <c r="A76" s="1" t="s">
         <v>112</v>
       </c>
@@ -11211,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42">
       <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
@@ -11339,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42">
       <c r="A78" s="1" t="s">
         <v>68</v>
       </c>
@@ -11467,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" ht="31.5">
       <c r="A79" s="1" t="s">
         <v>58</v>
       </c>
@@ -11595,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42">
       <c r="A80" s="1" t="s">
         <v>117</v>
       </c>
@@ -11723,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -11851,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42">
       <c r="A82" s="1" t="s">
         <v>101</v>
       </c>
@@ -11979,7 +13062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42" ht="31.5">
       <c r="A83" s="1" t="s">
         <v>137</v>
       </c>
@@ -12107,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42">
       <c r="A84" s="1" t="s">
         <v>139</v>
       </c>
@@ -12235,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -12363,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42">
       <c r="A86" s="1" t="s">
         <v>62</v>
       </c>
@@ -12491,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42">
       <c r="A87" s="1" t="s">
         <v>160</v>
       </c>
@@ -12619,7 +13702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42">
       <c r="A88" s="1" t="s">
         <v>138</v>
       </c>
@@ -12747,7 +13830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42">
       <c r="A89" s="1" t="s">
         <v>35</v>
       </c>
@@ -12875,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42">
       <c r="A90" s="1" t="s">
         <v>77</v>
       </c>
@@ -13003,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42">
       <c r="A91" s="1" t="s">
         <v>49</v>
       </c>
@@ -13131,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42">
       <c r="A92" s="1" t="s">
         <v>78</v>
       </c>
@@ -13259,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42">
       <c r="A93" s="1" t="s">
         <v>85</v>
       </c>
@@ -13387,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42">
       <c r="A94" s="1" t="s">
         <v>66</v>
       </c>
@@ -13515,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42">
       <c r="A95" s="1" t="s">
         <v>118</v>
       </c>
@@ -13643,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42">
       <c r="A96" s="2" t="s">
         <v>56</v>
       </c>
@@ -13771,7 +14854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" ht="31.5">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -13899,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:43" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" ht="47.25">
       <c r="A98" s="1" t="s">
         <v>83</v>
       </c>
@@ -14027,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43">
       <c r="A99" s="1" t="s">
         <v>82</v>
       </c>
@@ -14155,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43">
       <c r="A100" s="1" t="s">
         <v>153</v>
       </c>
@@ -14284,7 +15367,7 @@
       </c>
       <c r="AQ100" s="3"/>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43">
       <c r="A101" s="1" t="s">
         <v>168</v>
       </c>
@@ -14412,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43">
       <c r="A102" s="1" t="s">
         <v>148</v>
       </c>
@@ -14540,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43">
       <c r="A103" s="1" t="s">
         <v>147</v>
       </c>
@@ -14668,7 +15751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43">
       <c r="A104" s="1" t="s">
         <v>142</v>
       </c>
@@ -14796,7 +15879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43" ht="31.5">
       <c r="A105" s="1" t="s">
         <v>143</v>
       </c>
@@ -14924,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43">
       <c r="A106" s="1" t="s">
         <v>146</v>
       </c>
@@ -15052,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43">
       <c r="A107" s="1" t="s">
         <v>149</v>
       </c>
@@ -15180,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43">
       <c r="A108" s="1" t="s">
         <v>84</v>
       </c>
@@ -15308,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43">
       <c r="A109" s="1" t="s">
         <v>170</v>
       </c>
@@ -15436,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43">
       <c r="A110" s="1" t="s">
         <v>171</v>
       </c>
@@ -15564,7 +16647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43">
       <c r="A111" s="1" t="s">
         <v>172</v>
       </c>
@@ -15692,7 +16775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43">
       <c r="A112" s="1" t="s">
         <v>173</v>
       </c>
@@ -15820,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:42">
       <c r="A113" s="1" t="s">
         <v>174</v>
       </c>
@@ -15948,7 +17031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:42">
       <c r="A114" s="1" t="s">
         <v>39</v>
       </c>
@@ -16076,7 +17159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:42" ht="31.5">
       <c r="A115" s="1" t="s">
         <v>42</v>
       </c>
@@ -16204,7 +17287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:42">
       <c r="A116" s="1" t="s">
         <v>41</v>
       </c>
@@ -16332,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:42">
       <c r="A117" s="1" t="s">
         <v>159</v>
       </c>
@@ -16460,7 +17543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:42">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
@@ -16588,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:42" ht="31.5">
       <c r="A119" s="1" t="s">
         <v>164</v>
       </c>
@@ -16716,7 +17799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:42">
       <c r="A120" s="1" t="s">
         <v>175</v>
       </c>
@@ -16844,7 +17927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:42">
       <c r="A121" s="1" t="s">
         <v>176</v>
       </c>
@@ -16972,7 +18055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:42">
       <c r="A122" s="1" t="s">
         <v>177</v>
       </c>
@@ -17100,7 +18183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:42">
       <c r="A123" s="1" t="s">
         <v>178</v>
       </c>
@@ -17228,7 +18311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:42">
       <c r="A124" s="1" t="s">
         <v>179</v>
       </c>
@@ -17356,7 +18439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:42">
       <c r="A125" s="1" t="s">
         <v>180</v>
       </c>
@@ -17484,7 +18567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:42" ht="31.5">
       <c r="A126" s="1" t="s">
         <v>181</v>
       </c>
@@ -17612,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:42">
       <c r="A127" s="1" t="s">
         <v>158</v>
       </c>
@@ -17740,7 +18823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:42">
       <c r="A128" s="1" t="s">
         <v>98</v>
       </c>
@@ -17868,7 +18951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:42" ht="31.5">
       <c r="A129" s="1" t="s">
         <v>95</v>
       </c>
@@ -17996,7 +19079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:42">
       <c r="A130" s="1" t="s">
         <v>182</v>
       </c>
@@ -18124,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:42">
       <c r="A131" s="1" t="s">
         <v>183</v>
       </c>
@@ -18249,7 +19332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:42" ht="31.5">
       <c r="A132" s="1" t="s">
         <v>184</v>
       </c>
@@ -18377,7 +19460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:42">
       <c r="A133" s="1" t="s">
         <v>185</v>
       </c>
@@ -18505,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:42" ht="31.5">
       <c r="A134" s="1" t="s">
         <v>186</v>
       </c>
@@ -18633,7 +19716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:42">
       <c r="A135" s="1" t="s">
         <v>187</v>
       </c>
@@ -18761,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:42">
       <c r="A136" s="1" t="s">
         <v>93</v>
       </c>
@@ -18889,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:42">
       <c r="A137" s="1" t="s">
         <v>53</v>
       </c>
@@ -19017,7 +20100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:42">
       <c r="A138" s="1" t="s">
         <v>131</v>
       </c>
@@ -19145,7 +20228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:42">
       <c r="A139" s="1" t="s">
         <v>108</v>
       </c>
@@ -19273,7 +20356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:42">
       <c r="A140" s="1" t="s">
         <v>109</v>
       </c>
@@ -19401,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:42" ht="31.5">
       <c r="A141" s="1" t="s">
         <v>106</v>
       </c>
@@ -19529,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:42">
       <c r="A142" s="1" t="s">
         <v>107</v>
       </c>
@@ -19657,7 +20740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:42">
       <c r="A143" s="1" t="s">
         <v>38</v>
       </c>
@@ -19785,7 +20868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:42">
       <c r="A144" s="1" t="s">
         <v>188</v>
       </c>
@@ -19913,7 +20996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:42">
       <c r="A145" s="1" t="s">
         <v>189</v>
       </c>
@@ -20041,7 +21124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:42">
       <c r="A146" s="1" t="s">
         <v>190</v>
       </c>
@@ -20169,7 +21252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:42">
       <c r="A147" s="1" t="s">
         <v>191</v>
       </c>
@@ -20297,7 +21380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:42">
       <c r="A148" s="1" t="s">
         <v>192</v>
       </c>
@@ -20425,7 +21508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:42">
       <c r="A149" s="1" t="s">
         <v>193</v>
       </c>
@@ -20553,7 +21636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:42">
       <c r="A150" s="1" t="s">
         <v>194</v>
       </c>
@@ -20681,7 +21764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:42">
       <c r="A151" s="1" t="s">
         <v>54</v>
       </c>
@@ -20809,7 +21892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:42">
       <c r="A152" s="1" t="s">
         <v>47</v>
       </c>
@@ -20937,7 +22020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:42">
       <c r="A153" s="1" t="s">
         <v>73</v>
       </c>
@@ -21065,7 +22148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:42">
       <c r="A154" s="1" t="s">
         <v>37</v>
       </c>
@@ -21193,7 +22276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:42">
       <c r="A155" s="1" t="s">
         <v>31</v>
       </c>
@@ -21321,7 +22404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:42">
       <c r="A156" s="1" t="s">
         <v>195</v>
       </c>
@@ -21449,7 +22532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:42">
       <c r="A157" s="1" t="s">
         <v>196</v>
       </c>
@@ -21577,7 +22660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:42">
       <c r="A158" s="1" t="s">
         <v>197</v>
       </c>
@@ -21705,7 +22788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:42">
       <c r="A159" s="1" t="s">
         <v>198</v>
       </c>
@@ -21833,7 +22916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:42">
       <c r="A160" s="1" t="s">
         <v>199</v>
       </c>
@@ -21961,7 +23044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:42">
       <c r="A161" s="1" t="s">
         <v>200</v>
       </c>
@@ -22089,7 +23172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:42" ht="31.5">
       <c r="A162" s="1" t="s">
         <v>201</v>
       </c>
@@ -22217,57 +23300,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:42">
       <c r="A163" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:42" ht="31.5">
       <c r="A164" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:42">
       <c r="A165" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:42">
       <c r="A166" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:42">
       <c r="A167" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:42" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:42" ht="31.5">
       <c r="A168" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:42">
       <c r="A169" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:42">
       <c r="A170" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:42">
       <c r="A171" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:42">
       <c r="A172" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:42">
       <c r="A173" s="1" t="s">
         <v>212</v>
       </c>
@@ -22277,7 +23360,1374 @@
     <sortCondition ref="K2:K157"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30">
+      <c r="A67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30">
+      <c r="A72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30">
+      <c r="A74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30">
+      <c r="A76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30">
+      <c r="A79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30">
+      <c r="A83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="45">
+      <c r="A98" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B99" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30">
+      <c r="A105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B109" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30">
+      <c r="A115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30">
+      <c r="A119" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B119" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B122" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B123" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="30">
+      <c r="A126" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B127" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B128" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="30">
+      <c r="A129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B129" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B130" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B131" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="30">
+      <c r="A134" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B138" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B139" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B141" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="30">
+      <c r="A142" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B142" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B145" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B147" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B148" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B150" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B154" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B155" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B157" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B158" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B159" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B160" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B161" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="30">
+      <c r="A163" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B163" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="30">
+      <c r="A165" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B166" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B167" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B168" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="30">
+      <c r="A169" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B169" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B170" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B171" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B172" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B173" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B174" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
